--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp8a-Tgfbr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp8a-Tgfbr1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3729963333333333</v>
+        <v>0.6085193333333334</v>
       </c>
       <c r="H2">
-        <v>1.118989</v>
+        <v>1.825558</v>
       </c>
       <c r="I2">
-        <v>0.1867874381458752</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="J2">
-        <v>0.1867874381458753</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.07474266666667</v>
+        <v>14.13421233333333</v>
       </c>
       <c r="N2">
-        <v>36.224228</v>
+        <v>42.402637</v>
       </c>
       <c r="O2">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526193</v>
       </c>
       <c r="P2">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526192</v>
       </c>
       <c r="Q2">
-        <v>4.503834740610221</v>
+        <v>8.600941466271777</v>
       </c>
       <c r="R2">
-        <v>40.534512665492</v>
+        <v>77.40847319644601</v>
       </c>
       <c r="S2">
-        <v>0.01523240845240096</v>
+        <v>0.01675114655415239</v>
       </c>
       <c r="T2">
-        <v>0.01523240845240096</v>
+        <v>0.01675114655415238</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3729963333333333</v>
+        <v>0.6085193333333334</v>
       </c>
       <c r="H3">
-        <v>1.118989</v>
+        <v>1.825558</v>
       </c>
       <c r="I3">
-        <v>0.1867874381458752</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="J3">
-        <v>0.1867874381458753</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>16.614382</v>
       </c>
       <c r="N3">
-        <v>49.843146</v>
+        <v>49.84314599999999</v>
       </c>
       <c r="O3">
-        <v>0.1122088777077109</v>
+        <v>0.07558164617031606</v>
       </c>
       <c r="P3">
-        <v>0.1122088777077108</v>
+        <v>0.07558164617031604</v>
       </c>
       <c r="Q3">
-        <v>6.197103566599334</v>
+        <v>10.11017265838533</v>
       </c>
       <c r="R3">
-        <v>55.773932099394</v>
+        <v>90.991553925468</v>
       </c>
       <c r="S3">
-        <v>0.02095920880424712</v>
+        <v>0.01969051696869735</v>
       </c>
       <c r="T3">
-        <v>0.02095920880424712</v>
+        <v>0.01969051696869735</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3729963333333333</v>
+        <v>0.6085193333333334</v>
       </c>
       <c r="H4">
-        <v>1.118989</v>
+        <v>1.825558</v>
       </c>
       <c r="I4">
-        <v>0.1867874381458752</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="J4">
-        <v>0.1867874381458753</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.86740866666667</v>
+        <v>87.857732</v>
       </c>
       <c r="N4">
-        <v>131.602226</v>
+        <v>263.573196</v>
       </c>
       <c r="O4">
-        <v>0.2962681786437903</v>
+        <v>0.3996797481453391</v>
       </c>
       <c r="P4">
-        <v>0.2962681786437903</v>
+        <v>0.399679748145339</v>
       </c>
       <c r="Q4">
-        <v>16.36238258550156</v>
+        <v>53.46312850481867</v>
       </c>
       <c r="R4">
-        <v>147.261443269514</v>
+        <v>481.1681565433681</v>
       </c>
       <c r="S4">
-        <v>0.05533917409301811</v>
+        <v>0.1041244966425633</v>
       </c>
       <c r="T4">
-        <v>0.05533917409301811</v>
+        <v>0.1041244966425633</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3729963333333333</v>
+        <v>0.6085193333333334</v>
       </c>
       <c r="H5">
-        <v>1.118989</v>
+        <v>1.825558</v>
       </c>
       <c r="I5">
-        <v>0.1867874381458752</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="J5">
-        <v>0.1867874381458753</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.932863999999999</v>
+        <v>5.425038666666667</v>
       </c>
       <c r="N5">
-        <v>17.798592</v>
+        <v>16.275116</v>
       </c>
       <c r="O5">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="P5">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="Q5">
-        <v>2.212936518165333</v>
+        <v>3.301240912747556</v>
       </c>
       <c r="R5">
-        <v>19.916428663488</v>
+        <v>29.711168214728</v>
       </c>
       <c r="S5">
-        <v>0.007484367181590068</v>
+        <v>0.006429478744490121</v>
       </c>
       <c r="T5">
-        <v>0.00748436718159007</v>
+        <v>0.00642947874449012</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3729963333333333</v>
+        <v>0.6085193333333334</v>
       </c>
       <c r="H6">
-        <v>1.118989</v>
+        <v>1.825558</v>
       </c>
       <c r="I6">
-        <v>0.1867874381458752</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="J6">
-        <v>0.1867874381458753</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>69.577158</v>
+        <v>95.78895966666666</v>
       </c>
       <c r="N6">
-        <v>208.731474</v>
+        <v>287.366879</v>
       </c>
       <c r="O6">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584878</v>
       </c>
       <c r="P6">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584877</v>
       </c>
       <c r="Q6">
-        <v>25.952024817754</v>
+        <v>58.28943387705355</v>
       </c>
       <c r="R6">
-        <v>233.568223359786</v>
+        <v>524.6049048934821</v>
       </c>
       <c r="S6">
-        <v>0.08777227961461899</v>
+        <v>0.1135241825865305</v>
       </c>
       <c r="T6">
-        <v>0.087772279614619</v>
+        <v>0.1135241825865305</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>2.454042</v>
       </c>
       <c r="I7">
-        <v>0.4096413979783358</v>
+        <v>0.3502088587624996</v>
       </c>
       <c r="J7">
-        <v>0.4096413979783359</v>
+        <v>0.3502088587624995</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.07474266666667</v>
+        <v>14.13421233333333</v>
       </c>
       <c r="N7">
-        <v>36.224228</v>
+        <v>42.402637</v>
       </c>
       <c r="O7">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526193</v>
       </c>
       <c r="P7">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526192</v>
       </c>
       <c r="Q7">
-        <v>9.877308547730667</v>
+        <v>11.56198356763933</v>
       </c>
       <c r="R7">
-        <v>88.895776929576</v>
+        <v>104.057852108754</v>
       </c>
       <c r="S7">
-        <v>0.03340602106307296</v>
+        <v>0.02251805595442338</v>
       </c>
       <c r="T7">
-        <v>0.03340602106307297</v>
+        <v>0.02251805595442337</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>2.454042</v>
       </c>
       <c r="I8">
-        <v>0.4096413979783358</v>
+        <v>0.3502088587624996</v>
       </c>
       <c r="J8">
-        <v>0.4096413979783359</v>
+        <v>0.3502088587624995</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,13 +933,13 @@
         <v>16.614382</v>
       </c>
       <c r="N8">
-        <v>49.843146</v>
+        <v>49.84314599999999</v>
       </c>
       <c r="O8">
-        <v>0.1122088777077109</v>
+        <v>0.07558164617031606</v>
       </c>
       <c r="P8">
-        <v>0.1122088777077108</v>
+        <v>0.07558164617031604</v>
       </c>
       <c r="Q8">
         <v>13.590797077348</v>
@@ -948,10 +948,10 @@
         <v>122.317173696132</v>
       </c>
       <c r="S8">
-        <v>0.0459654015297668</v>
+        <v>0.02646936204869743</v>
       </c>
       <c r="T8">
-        <v>0.0459654015297668</v>
+        <v>0.02646936204869742</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>2.454042</v>
       </c>
       <c r="I9">
-        <v>0.4096413979783358</v>
+        <v>0.3502088587624996</v>
       </c>
       <c r="J9">
-        <v>0.4096413979783359</v>
+        <v>0.3502088587624995</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>43.86740866666667</v>
+        <v>87.857732</v>
       </c>
       <c r="N9">
-        <v>131.602226</v>
+        <v>263.573196</v>
       </c>
       <c r="O9">
-        <v>0.2962681786437903</v>
+        <v>0.3996797481453391</v>
       </c>
       <c r="P9">
-        <v>0.2962681786437903</v>
+        <v>0.399679748145339</v>
       </c>
       <c r="Q9">
-        <v>35.88415443305468</v>
+        <v>71.86885478424801</v>
       </c>
       <c r="R9">
-        <v>322.957389897492</v>
+        <v>646.819693058232</v>
       </c>
       <c r="S9">
-        <v>0.1213637108761376</v>
+        <v>0.1399713884684625</v>
       </c>
       <c r="T9">
-        <v>0.1213637108761376</v>
+        <v>0.1399713884684624</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>2.454042</v>
       </c>
       <c r="I10">
-        <v>0.4096413979783358</v>
+        <v>0.3502088587624996</v>
       </c>
       <c r="J10">
-        <v>0.4096413979783359</v>
+        <v>0.3502088587624995</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.932863999999999</v>
+        <v>5.425038666666667</v>
       </c>
       <c r="N10">
-        <v>17.798592</v>
+        <v>16.275116</v>
       </c>
       <c r="O10">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="P10">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="Q10">
-        <v>4.853165812096</v>
+        <v>4.437757579874667</v>
       </c>
       <c r="R10">
-        <v>43.678492308864</v>
+        <v>39.93981821887201</v>
       </c>
       <c r="S10">
-        <v>0.01641388021423236</v>
+        <v>0.008642952388850985</v>
       </c>
       <c r="T10">
-        <v>0.01641388021423237</v>
+        <v>0.008642952388850983</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>2.454042</v>
       </c>
       <c r="I11">
-        <v>0.4096413979783358</v>
+        <v>0.3502088587624996</v>
       </c>
       <c r="J11">
-        <v>0.4096413979783359</v>
+        <v>0.3502088587624995</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>69.577158</v>
+        <v>95.78895966666666</v>
       </c>
       <c r="N11">
-        <v>208.731474</v>
+        <v>287.366879</v>
       </c>
       <c r="O11">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584878</v>
       </c>
       <c r="P11">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584877</v>
       </c>
       <c r="Q11">
-        <v>56.915089324212</v>
+        <v>78.35671005276868</v>
       </c>
       <c r="R11">
-        <v>512.235803917908</v>
+        <v>705.2103904749181</v>
       </c>
       <c r="S11">
-        <v>0.1924923842951261</v>
+        <v>0.1526070999020653</v>
       </c>
       <c r="T11">
-        <v>0.1924923842951261</v>
+        <v>0.1526070999020653</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.293949</v>
+        <v>0.3428273333333333</v>
       </c>
       <c r="H12">
-        <v>0.8818469999999999</v>
+        <v>1.028482</v>
       </c>
       <c r="I12">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="J12">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.07474266666667</v>
+        <v>14.13421233333333</v>
       </c>
       <c r="N12">
-        <v>36.224228</v>
+        <v>42.402637</v>
       </c>
       <c r="O12">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526193</v>
       </c>
       <c r="P12">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526192</v>
       </c>
       <c r="Q12">
-        <v>3.549358532123999</v>
+        <v>4.845594323003777</v>
       </c>
       <c r="R12">
-        <v>31.94422678911599</v>
+        <v>43.61034890703399</v>
       </c>
       <c r="S12">
-        <v>0.01200427680390462</v>
+        <v>0.00943725299897771</v>
       </c>
       <c r="T12">
-        <v>0.01200427680390462</v>
+        <v>0.009437252998977708</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.293949</v>
+        <v>0.3428273333333333</v>
       </c>
       <c r="H13">
-        <v>0.8818469999999999</v>
+        <v>1.028482</v>
       </c>
       <c r="I13">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="J13">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,25 +1243,25 @@
         <v>16.614382</v>
       </c>
       <c r="N13">
-        <v>49.843146</v>
+        <v>49.84314599999999</v>
       </c>
       <c r="O13">
-        <v>0.1122088777077109</v>
+        <v>0.07558164617031606</v>
       </c>
       <c r="P13">
-        <v>0.1122088777077108</v>
+        <v>0.07558164617031604</v>
       </c>
       <c r="Q13">
-        <v>4.883780974518</v>
+        <v>5.695864276041331</v>
       </c>
       <c r="R13">
-        <v>43.954028770662</v>
+        <v>51.26277848437199</v>
       </c>
       <c r="S13">
-        <v>0.01651742368012457</v>
+        <v>0.01109323410869432</v>
       </c>
       <c r="T13">
-        <v>0.01651742368012457</v>
+        <v>0.01109323410869432</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.293949</v>
+        <v>0.3428273333333333</v>
       </c>
       <c r="H14">
-        <v>0.8818469999999999</v>
+        <v>1.028482</v>
       </c>
       <c r="I14">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="J14">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>43.86740866666667</v>
+        <v>87.857732</v>
       </c>
       <c r="N14">
-        <v>131.602226</v>
+        <v>263.573196</v>
       </c>
       <c r="O14">
-        <v>0.2962681786437903</v>
+        <v>0.3996797481453391</v>
       </c>
       <c r="P14">
-        <v>0.2962681786437903</v>
+        <v>0.399679748145339</v>
       </c>
       <c r="Q14">
-        <v>12.894780910158</v>
+        <v>30.12003197427466</v>
       </c>
       <c r="R14">
-        <v>116.053028191422</v>
+        <v>271.080287768472</v>
       </c>
       <c r="S14">
-        <v>0.04361140695431834</v>
+        <v>0.05866160952209505</v>
       </c>
       <c r="T14">
-        <v>0.04361140695431835</v>
+        <v>0.05866160952209504</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.293949</v>
+        <v>0.3428273333333333</v>
       </c>
       <c r="H15">
-        <v>0.8818469999999999</v>
+        <v>1.028482</v>
       </c>
       <c r="I15">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="J15">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.932863999999999</v>
+        <v>5.425038666666667</v>
       </c>
       <c r="N15">
-        <v>17.798592</v>
+        <v>16.275116</v>
       </c>
       <c r="O15">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="P15">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="Q15">
-        <v>1.743959439936</v>
+        <v>1.859851539323556</v>
       </c>
       <c r="R15">
-        <v>15.695634959424</v>
+        <v>16.738663853912</v>
       </c>
       <c r="S15">
-        <v>0.005898240953202987</v>
+        <v>0.003622236684942734</v>
       </c>
       <c r="T15">
-        <v>0.005898240953202988</v>
+        <v>0.003622236684942734</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.293949</v>
+        <v>0.3428273333333333</v>
       </c>
       <c r="H16">
-        <v>0.8818469999999999</v>
+        <v>1.028482</v>
       </c>
       <c r="I16">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="J16">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>69.577158</v>
+        <v>95.78895966666666</v>
       </c>
       <c r="N16">
-        <v>208.731474</v>
+        <v>287.366879</v>
       </c>
       <c r="O16">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584878</v>
       </c>
       <c r="P16">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584877</v>
       </c>
       <c r="Q16">
-        <v>20.452136016942</v>
+        <v>32.83907360529755</v>
       </c>
       <c r="R16">
-        <v>184.069224152478</v>
+        <v>295.5516624476779</v>
       </c>
       <c r="S16">
-        <v>0.06917111916320259</v>
+        <v>0.06395720013002057</v>
       </c>
       <c r="T16">
-        <v>0.06917111916320261</v>
+        <v>0.06395720013002056</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3240786666666666</v>
+        <v>0.327581</v>
       </c>
       <c r="H17">
-        <v>0.9722359999999999</v>
+        <v>0.9827429999999999</v>
       </c>
       <c r="I17">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="J17">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.07474266666667</v>
+        <v>14.13421233333333</v>
       </c>
       <c r="N17">
-        <v>36.224228</v>
+        <v>42.402637</v>
       </c>
       <c r="O17">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526193</v>
       </c>
       <c r="P17">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526192</v>
       </c>
       <c r="Q17">
-        <v>3.913166503756444</v>
+        <v>4.630099410365665</v>
       </c>
       <c r="R17">
-        <v>35.218498533808</v>
+        <v>41.670894693291</v>
       </c>
       <c r="S17">
-        <v>0.01323471085428766</v>
+        <v>0.009017556285841027</v>
       </c>
       <c r="T17">
-        <v>0.01323471085428766</v>
+        <v>0.009017556285841024</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3240786666666666</v>
+        <v>0.327581</v>
       </c>
       <c r="H18">
-        <v>0.9722359999999999</v>
+        <v>0.9827429999999999</v>
       </c>
       <c r="I18">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="J18">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,25 +1553,25 @@
         <v>16.614382</v>
       </c>
       <c r="N18">
-        <v>49.843146</v>
+        <v>49.84314599999999</v>
       </c>
       <c r="O18">
-        <v>0.1122088777077109</v>
+        <v>0.07558164617031606</v>
       </c>
       <c r="P18">
-        <v>0.1122088777077108</v>
+        <v>0.07558164617031604</v>
       </c>
       <c r="Q18">
-        <v>5.384366766050666</v>
+        <v>5.442555869941998</v>
       </c>
       <c r="R18">
-        <v>48.459300894456</v>
+        <v>48.98300282947799</v>
       </c>
       <c r="S18">
-        <v>0.01821045366040774</v>
+        <v>0.01059989204252537</v>
       </c>
       <c r="T18">
-        <v>0.01821045366040774</v>
+        <v>0.01059989204252537</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3240786666666666</v>
+        <v>0.327581</v>
       </c>
       <c r="H19">
-        <v>0.9722359999999999</v>
+        <v>0.9827429999999999</v>
       </c>
       <c r="I19">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="J19">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>43.86740866666667</v>
+        <v>87.857732</v>
       </c>
       <c r="N19">
-        <v>131.602226</v>
+        <v>263.573196</v>
       </c>
       <c r="O19">
-        <v>0.2962681786437903</v>
+        <v>0.3996797481453391</v>
       </c>
       <c r="P19">
-        <v>0.2962681786437903</v>
+        <v>0.399679748145339</v>
       </c>
       <c r="Q19">
-        <v>14.21649131081511</v>
+        <v>28.78052370629199</v>
       </c>
       <c r="R19">
-        <v>127.948421797336</v>
+        <v>259.024713356628</v>
       </c>
       <c r="S19">
-        <v>0.0480815604652946</v>
+        <v>0.0560527905462344</v>
       </c>
       <c r="T19">
-        <v>0.0480815604652946</v>
+        <v>0.05605279054623439</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3240786666666666</v>
+        <v>0.327581</v>
       </c>
       <c r="H20">
-        <v>0.9722359999999999</v>
+        <v>0.9827429999999999</v>
       </c>
       <c r="I20">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="J20">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.932863999999999</v>
+        <v>5.425038666666667</v>
       </c>
       <c r="N20">
-        <v>17.798592</v>
+        <v>16.275116</v>
       </c>
       <c r="O20">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="P20">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="Q20">
-        <v>1.922714654634666</v>
+        <v>1.777139591465333</v>
       </c>
       <c r="R20">
-        <v>17.304431891712</v>
+        <v>15.994256323188</v>
       </c>
       <c r="S20">
-        <v>0.006502808527304916</v>
+        <v>0.003461147347713112</v>
       </c>
       <c r="T20">
-        <v>0.006502808527304916</v>
+        <v>0.003461147347713112</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3240786666666666</v>
+        <v>0.327581</v>
       </c>
       <c r="H21">
-        <v>0.9722359999999999</v>
+        <v>0.9827429999999999</v>
       </c>
       <c r="I21">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="J21">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>69.577158</v>
+        <v>95.78895966666666</v>
       </c>
       <c r="N21">
-        <v>208.731474</v>
+        <v>287.366879</v>
       </c>
       <c r="O21">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584878</v>
       </c>
       <c r="P21">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584877</v>
       </c>
       <c r="Q21">
-        <v>22.548472595096</v>
+        <v>31.37864319656633</v>
       </c>
       <c r="R21">
-        <v>202.936253355864</v>
+        <v>282.407788769097</v>
       </c>
       <c r="S21">
-        <v>0.07626113397307632</v>
+        <v>0.06111287385425977</v>
       </c>
       <c r="T21">
-        <v>0.07626113397307632</v>
+        <v>0.06111287385425975</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.1878646666666667</v>
+        <v>0.2388473333333333</v>
       </c>
       <c r="H22">
-        <v>0.563594</v>
+        <v>0.716542</v>
       </c>
       <c r="I22">
-        <v>0.09407802884066457</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="J22">
-        <v>0.09407802884066459</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.07474266666667</v>
+        <v>14.13421233333333</v>
       </c>
       <c r="N22">
-        <v>36.224228</v>
+        <v>42.402637</v>
       </c>
       <c r="O22">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526193</v>
       </c>
       <c r="P22">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526192</v>
       </c>
       <c r="Q22">
-        <v>2.268417506159111</v>
+        <v>3.375918924583778</v>
       </c>
       <c r="R22">
-        <v>20.415757555432</v>
+        <v>30.383270321254</v>
       </c>
       <c r="S22">
-        <v>0.007672009295285713</v>
+        <v>0.006574921231867438</v>
       </c>
       <c r="T22">
-        <v>0.007672009295285714</v>
+        <v>0.006574921231867437</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.1878646666666667</v>
+        <v>0.2388473333333333</v>
       </c>
       <c r="H23">
-        <v>0.563594</v>
+        <v>0.716542</v>
       </c>
       <c r="I23">
-        <v>0.09407802884066457</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="J23">
-        <v>0.09407802884066459</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,25 +1863,25 @@
         <v>16.614382</v>
       </c>
       <c r="N23">
-        <v>49.843146</v>
+        <v>49.84314599999999</v>
       </c>
       <c r="O23">
-        <v>0.1122088777077109</v>
+        <v>0.07558164617031606</v>
       </c>
       <c r="P23">
-        <v>0.1122088777077108</v>
+        <v>0.07558164617031604</v>
       </c>
       <c r="Q23">
-        <v>3.121255336302667</v>
+        <v>3.968300835681332</v>
       </c>
       <c r="R23">
-        <v>28.091298026724</v>
+        <v>35.71470752113199</v>
       </c>
       <c r="S23">
-        <v>0.01055639003316463</v>
+        <v>0.007728641001701581</v>
       </c>
       <c r="T23">
-        <v>0.01055639003316463</v>
+        <v>0.007728641001701579</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.1878646666666667</v>
+        <v>0.2388473333333333</v>
       </c>
       <c r="H24">
-        <v>0.563594</v>
+        <v>0.716542</v>
       </c>
       <c r="I24">
-        <v>0.09407802884066457</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="J24">
-        <v>0.09407802884066459</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>43.86740866666667</v>
+        <v>87.857732</v>
       </c>
       <c r="N24">
-        <v>131.602226</v>
+        <v>263.573196</v>
       </c>
       <c r="O24">
-        <v>0.2962681786437903</v>
+        <v>0.3996797481453391</v>
       </c>
       <c r="P24">
-        <v>0.2962681786437903</v>
+        <v>0.399679748145339</v>
       </c>
       <c r="Q24">
-        <v>8.241136106693778</v>
+        <v>20.98458500091467</v>
       </c>
       <c r="R24">
-        <v>74.170224960244</v>
+        <v>188.861265008232</v>
       </c>
       <c r="S24">
-        <v>0.02787232625502167</v>
+        <v>0.04086946296598388</v>
       </c>
       <c r="T24">
-        <v>0.02787232625502168</v>
+        <v>0.04086946296598387</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.1878646666666667</v>
+        <v>0.2388473333333333</v>
       </c>
       <c r="H25">
-        <v>0.563594</v>
+        <v>0.716542</v>
       </c>
       <c r="I25">
-        <v>0.09407802884066457</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="J25">
-        <v>0.09407802884066459</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.932863999999999</v>
+        <v>5.425038666666667</v>
       </c>
       <c r="N25">
-        <v>17.798592</v>
+        <v>16.275116</v>
       </c>
       <c r="O25">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="P25">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="Q25">
-        <v>1.114575517738667</v>
+        <v>1.295756018763556</v>
       </c>
       <c r="R25">
-        <v>10.031179659648</v>
+        <v>11.661804168872</v>
       </c>
       <c r="S25">
-        <v>0.00376960313045175</v>
+        <v>0.00252360733459821</v>
       </c>
       <c r="T25">
-        <v>0.003769603130451751</v>
+        <v>0.00252360733459821</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.1878646666666667</v>
+        <v>0.2388473333333333</v>
       </c>
       <c r="H26">
-        <v>0.563594</v>
+        <v>0.716542</v>
       </c>
       <c r="I26">
-        <v>0.09407802884066457</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="J26">
-        <v>0.09407802884066459</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>69.577158</v>
+        <v>95.78895966666666</v>
       </c>
       <c r="N26">
-        <v>208.731474</v>
+        <v>287.366879</v>
       </c>
       <c r="O26">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584878</v>
       </c>
       <c r="P26">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584877</v>
       </c>
       <c r="Q26">
-        <v>13.071089595284</v>
+        <v>22.87893757915755</v>
       </c>
       <c r="R26">
-        <v>117.639806357556</v>
+        <v>205.910438212418</v>
       </c>
       <c r="S26">
-        <v>0.04420770012674081</v>
+        <v>0.0445588936856116</v>
       </c>
       <c r="T26">
-        <v>0.04420770012674082</v>
+        <v>0.04455889368561159</v>
       </c>
     </row>
   </sheetData>
